--- a/data/trans_orig/IP44S4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP44S4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB73ADE2-2F68-4F74-B846-E024D91A6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8B256DE-9C7D-4C81-91D4-F6455C9075CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3BF836D-DAAC-423F-A9FF-99AB423A0092}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6CA7DF6-CA2E-47AA-8D1D-65DCFDF93103}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924A24E-C714-41B8-B3A6-8E781AB0F279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B331FE13-A28D-4913-A744-2FB055F6488D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
